--- a/Google/Certificado profesional de Análisis de datos de Google/2. Ask Questions to Make Data-Driven Decisions/Semana 3/Formulas/Spreadsheet errors and fixes.xlsx
+++ b/Google/Certificado profesional de Análisis de datos de Google/2. Ask Questions to Make Data-Driven Decisions/Semana 3/Formulas/Spreadsheet errors and fixes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertovelasquezdean/Desktop/Rescata_/Programación/Google/Certificado profesional de Análisis de datos de Google/2. Ask Questions to Make Data-Driven Decisions/Semana 3/Funciones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertovelasquezdean/Desktop/Rescata_/Programación/Google/Certificado profesional de Análisis de datos de Google/2. Ask Questions to Make Data-Driven Decisions/Semana 3/Formulas/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#DIV0!" sheetId="1" r:id="rId1"/>
@@ -917,20 +917,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -959,13 +947,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1228,13 +1228,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -1247,13 +1247,13 @@
         <f>IFERROR((B4/A4),"No aplica")</f>
         <v>No aplica</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -1550,8 +1550,8 @@
   </sheetPr>
   <dimension ref="A1:M996"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1716,8 +1716,8 @@
       <c r="C20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="33"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1731,23 +1731,23 @@
         <f ca="1">B21+(0.05*B21)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="33"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="18">
-        <f t="shared" ref="B21:B27" si="0">VLOOKUP(A22, $A$3:$B$18, 2, 0)</f>
+        <f t="shared" ref="B22:B27" si="0">VLOOKUP(A22, $A$3:$B$18, 2, 0)</f>
         <v>9.89</v>
       </c>
       <c r="C22" s="15">
-        <f t="shared" ref="C21:C27" si="1">B22+(0.05*B22)</f>
+        <f t="shared" ref="C22:C27" si="1">B22+(0.05*B22)</f>
         <v>10.384500000000001</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -1761,8 +1761,8 @@
         <f t="shared" si="1"/>
         <v>25.725000000000001</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -1776,8 +1776,8 @@
         <f t="shared" si="1"/>
         <v>9.4395000000000007</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
@@ -1791,8 +1791,8 @@
         <f t="shared" si="1"/>
         <v>12.169499999999999</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
@@ -1806,8 +1806,8 @@
         <f t="shared" si="1"/>
         <v>29.547000000000001</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
@@ -1821,13 +1821,13 @@
         <f t="shared" si="1"/>
         <v>15.214500000000001</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="15"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
@@ -1839,8 +1839,8 @@
       <c r="C29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1854,8 +1854,8 @@
         <f t="shared" ref="C30:C38" si="3">B30+(0.1*B30)</f>
         <v>13.145</v>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
@@ -1869,8 +1869,8 @@
         <f t="shared" si="3"/>
         <v>8.7889999999999997</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="33"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
@@ -2068,39 +2068,39 @@
       <c r="C48" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
     </row>
     <row r="49" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="30" t="e">
+      <c r="B49" s="26" t="e">
         <f t="shared" ref="B49:B64" si="6">VLOOKUP(A49, $A$3:$B$18, 2, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C49" s="31" t="e">
+      <c r="C49" s="27" t="e">
         <f t="shared" ref="C49:C64" si="7">B49+(0.05*B49)</f>
         <v>#N/A</v>
       </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
     </row>
     <row r="50" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
@@ -2114,15 +2114,15 @@
         <f>B50+(0.05*B50)</f>
         <v>12.547499999999999</v>
       </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
     </row>
     <row r="51" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
@@ -2136,15 +2136,15 @@
         <f t="shared" si="7"/>
         <v>8.3895</v>
       </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
     </row>
     <row r="52" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
@@ -2158,15 +2158,15 @@
         <f t="shared" si="7"/>
         <v>10.384500000000001</v>
       </c>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
     </row>
     <row r="53" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
@@ -2180,15 +2180,15 @@
         <f t="shared" si="7"/>
         <v>4.1895000000000007</v>
       </c>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
     </row>
     <row r="54" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
@@ -2202,15 +2202,15 @@
         <f t="shared" si="7"/>
         <v>7.5495000000000001</v>
       </c>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
     </row>
     <row r="55" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
@@ -5319,7 +5319,7 @@
       <c r="C20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="30" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
         <f t="shared" ref="C21:C27" ca="1" si="0">B21+(0.05*B21)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="30" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
         <f t="shared" si="0"/>
         <v>10.384500000000001</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="28" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5367,7 +5367,7 @@
         <f t="shared" si="0"/>
         <v>25.725000000000001</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="28" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5383,7 +5383,7 @@
         <f t="shared" si="0"/>
         <v>9.4395000000000007</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="28" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5399,7 +5399,7 @@
         <f t="shared" si="0"/>
         <v>12.169499999999999</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="28" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5415,7 +5415,7 @@
         <f t="shared" si="0"/>
         <v>29.547000000000001</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="28" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5431,13 +5431,13 @@
         <f t="shared" si="0"/>
         <v>15.214500000000001</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="15"/>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="28" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
       <c r="C29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="28" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
         <f t="shared" ref="C30:C38" si="3">B30+(0.1*B30)</f>
         <v>13.145</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="28" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5483,7 +5483,7 @@
         <f t="shared" si="3"/>
         <v>8.7889999999999997</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="28" t="s">
         <v>96</v>
       </c>
     </row>
@@ -8753,7 +8753,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="28" t="s">
         <v>111</v>
       </c>
     </row>
@@ -8771,7 +8771,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="28" t="s">
         <v>97</v>
       </c>
     </row>
@@ -8789,7 +8789,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="28" t="s">
         <v>98</v>
       </c>
     </row>
@@ -8807,7 +8807,7 @@
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="28" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8825,7 +8825,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="28" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="28" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8861,7 +8861,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="28" t="s">
         <v>102</v>
       </c>
     </row>
@@ -8879,7 +8879,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="28" t="s">
         <v>103</v>
       </c>
     </row>
@@ -8897,7 +8897,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="28" t="s">
         <v>112</v>
       </c>
     </row>
@@ -8915,7 +8915,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="30" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8923,37 +8923,37 @@
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="30" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="28" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="28" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="17" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="28" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="28" t="s">
         <v>110</v>
       </c>
     </row>
@@ -9022,7 +9022,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="28" t="s">
         <v>117</v>
       </c>
     </row>
@@ -9040,7 +9040,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="28" t="s">
         <v>118</v>
       </c>
     </row>
@@ -9058,7 +9058,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="28" t="s">
         <v>119</v>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="30" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9094,7 +9094,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="30" t="s">
         <v>121</v>
       </c>
     </row>
@@ -9112,7 +9112,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="28" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9130,7 +9130,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="28" t="s">
         <v>123</v>
       </c>
     </row>
@@ -9148,7 +9148,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="30" t="s">
         <v>124</v>
       </c>
     </row>
@@ -9166,7 +9166,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="30" t="s">
         <v>125</v>
       </c>
     </row>
@@ -9184,22 +9184,22 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="30" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="31" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="32" t="s">
         <v>115</v>
       </c>
     </row>
@@ -9215,7 +9215,7 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -9228,16 +9228,16 @@
       <c r="B1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -9246,14 +9246,14 @@
       <c r="B2" s="2">
         <v>5</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -9262,14 +9262,14 @@
       <c r="B3" s="2">
         <v>17</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
@@ -9279,14 +9279,14 @@
         <f>B2+B3+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
@@ -9295,16 +9295,16 @@
       <c r="B7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
@@ -9313,14 +9313,14 @@
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -9329,14 +9329,14 @@
       <c r="B9" s="2">
         <v>17</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
@@ -9346,85 +9346,85 @@
         <f>SUM(B8:B9)</f>
         <v>22</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="19"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="47"/>
+      <c r="D13" s="41"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="D14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="D14" s="41"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="D15" s="47"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="D15" s="41"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="41"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="38">
         <v>5</v>
       </c>
-      <c r="D17" s="47"/>
+      <c r="D17" s="41"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="38">
         <v>17</v>
       </c>
-      <c r="D18" s="47"/>
+      <c r="D18" s="41"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="38">
         <v>5</v>
       </c>
-      <c r="D19" s="47"/>
+      <c r="D19" s="41"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="40">
         <f>B19+B18+B17</f>
         <v>27</v>
       </c>
-      <c r="D20" s="47"/>
+      <c r="D20" s="41"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="47"/>
+      <c r="D21" s="41"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D22" s="47"/>
+      <c r="D22" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Google/Certificado profesional de Análisis de datos de Google/2. Ask Questions to Make Data-Driven Decisions/Semana 3/Formulas/Spreadsheet errors and fixes.xlsx
+++ b/Google/Certificado profesional de Análisis de datos de Google/2. Ask Questions to Make Data-Driven Decisions/Semana 3/Formulas/Spreadsheet errors and fixes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="#DIV0!" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,102 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Usuario de Microsoft Office</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Usuario de Microsoft Office:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Cuando se escribe mal la formula, error de sintaxis,</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Usuario de Microsoft Office</author>
+  </authors>
+  <commentList>
+    <comment ref="B49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Usuario de Microsoft Office:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Cuando no hay existencia real de un dato, dentro del archivo Excel, con el que se pretende trabajar dentro de una formula.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Usuario de Microsoft Office</author>
+  </authors>
+  <commentList>
+    <comment ref="B21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Usuario de Microsoft Office:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Cuando la formula o la función, textualmente, está mal escrita.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,13 +484,7 @@
     <t>the BUSCARV function in cell B21 is spelled incorrectly, </t>
   </si>
   <si>
-    <t>it has one extra V; </t>
-  </si>
-  <si>
     <t>the resulting markup calculation for the store (por ser una celda dependiente de ella). </t>
-  </si>
-  <si>
-    <t>we can delete the extra V in BUSCARV.</t>
   </si>
   <si>
     <t>calculate the number of months </t>
@@ -585,6 +675,12 @@
   <si>
     <t>Also, in this case, we could have prevented the REF error by using the SUM function and a range of cells instead of adding the cell value by direct reference. Now, if we delete row 10, the SUM function calculates the total seats available. There you go. We've now fixed some of the most common spreadsheet errors.</t>
   </si>
+  <si>
+    <t>it has one extra A; </t>
+  </si>
+  <si>
+    <t>we can delete the extra A in BUSCARV.</t>
+  </si>
 </sst>
 </file>
 
@@ -594,7 +690,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -705,6 +801,17 @@
       <sz val="11"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1184,7 +1291,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1362,7 +1469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1540,18 +1647,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:M996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2085,11 +2193,11 @@
         <v>36</v>
       </c>
       <c r="B49" s="26" t="e">
-        <f t="shared" ref="B49:B64" si="6">VLOOKUP(A49, $A$3:$B$18, 2, 0)</f>
+        <f>VLOOKUP(A49, $A$3:$B$18, 2, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="C49" s="27" t="e">
-        <f t="shared" ref="C49:C64" si="7">B49+(0.05*B49)</f>
+        <f t="shared" ref="C49:C64" si="6">B49+(0.05*B49)</f>
         <v>#N/A</v>
       </c>
       <c r="E49" s="44"/>
@@ -2129,11 +2237,11 @@
         <v>15</v>
       </c>
       <c r="B51" s="18">
+        <f t="shared" ref="B49:B64" si="7">VLOOKUP(A51, $A$3:$B$18, 2, 0)</f>
+        <v>7.99</v>
+      </c>
+      <c r="C51" s="15">
         <f t="shared" si="6"/>
-        <v>7.99</v>
-      </c>
-      <c r="C51" s="15">
-        <f t="shared" si="7"/>
         <v>8.3895</v>
       </c>
       <c r="E51" s="44"/>
@@ -2151,11 +2259,11 @@
         <v>16</v>
       </c>
       <c r="B52" s="18">
+        <f t="shared" si="7"/>
+        <v>9.89</v>
+      </c>
+      <c r="C52" s="15">
         <f t="shared" si="6"/>
-        <v>9.89</v>
-      </c>
-      <c r="C52" s="15">
-        <f t="shared" si="7"/>
         <v>10.384500000000001</v>
       </c>
       <c r="E52" s="44"/>
@@ -2173,11 +2281,11 @@
         <v>17</v>
       </c>
       <c r="B53" s="18">
+        <f t="shared" si="7"/>
+        <v>3.99</v>
+      </c>
+      <c r="C53" s="15">
         <f t="shared" si="6"/>
-        <v>3.99</v>
-      </c>
-      <c r="C53" s="15">
-        <f t="shared" si="7"/>
         <v>4.1895000000000007</v>
       </c>
       <c r="E53" s="44"/>
@@ -2195,11 +2303,11 @@
         <v>18</v>
       </c>
       <c r="B54" s="18">
+        <f t="shared" si="7"/>
+        <v>7.19</v>
+      </c>
+      <c r="C54" s="15">
         <f t="shared" si="6"/>
-        <v>7.19</v>
-      </c>
-      <c r="C54" s="15">
-        <f t="shared" si="7"/>
         <v>7.5495000000000001</v>
       </c>
       <c r="E54" s="44"/>
@@ -2217,11 +2325,11 @@
         <v>19</v>
       </c>
       <c r="B55" s="18">
+        <f t="shared" si="7"/>
+        <v>24.99</v>
+      </c>
+      <c r="C55" s="15">
         <f t="shared" si="6"/>
-        <v>24.99</v>
-      </c>
-      <c r="C55" s="15">
-        <f t="shared" si="7"/>
         <v>26.2395</v>
       </c>
     </row>
@@ -2230,11 +2338,11 @@
         <v>20</v>
       </c>
       <c r="B56" s="18">
+        <f t="shared" si="7"/>
+        <v>24.5</v>
+      </c>
+      <c r="C56" s="15">
         <f t="shared" si="6"/>
-        <v>24.5</v>
-      </c>
-      <c r="C56" s="15">
-        <f t="shared" si="7"/>
         <v>25.725000000000001</v>
       </c>
     </row>
@@ -2243,11 +2351,11 @@
         <v>21</v>
       </c>
       <c r="B57" s="18">
+        <f t="shared" si="7"/>
+        <v>8.99</v>
+      </c>
+      <c r="C57" s="15">
         <f t="shared" si="6"/>
-        <v>8.99</v>
-      </c>
-      <c r="C57" s="15">
-        <f t="shared" si="7"/>
         <v>9.4395000000000007</v>
       </c>
     </row>
@@ -2256,11 +2364,11 @@
         <v>22</v>
       </c>
       <c r="B58" s="18">
+        <f t="shared" si="7"/>
+        <v>11.59</v>
+      </c>
+      <c r="C58" s="15">
         <f t="shared" si="6"/>
-        <v>11.59</v>
-      </c>
-      <c r="C58" s="15">
-        <f t="shared" si="7"/>
         <v>12.169499999999999</v>
       </c>
     </row>
@@ -2269,11 +2377,11 @@
         <v>23</v>
       </c>
       <c r="B59" s="18">
+        <f t="shared" si="7"/>
+        <v>11.95</v>
+      </c>
+      <c r="C59" s="15">
         <f t="shared" si="6"/>
-        <v>11.95</v>
-      </c>
-      <c r="C59" s="15">
-        <f t="shared" si="7"/>
         <v>12.547499999999999</v>
       </c>
     </row>
@@ -2282,11 +2390,11 @@
         <v>24</v>
       </c>
       <c r="B60" s="18">
+        <f t="shared" si="7"/>
+        <v>28.14</v>
+      </c>
+      <c r="C60" s="15">
         <f t="shared" si="6"/>
-        <v>28.14</v>
-      </c>
-      <c r="C60" s="15">
-        <f t="shared" si="7"/>
         <v>29.547000000000001</v>
       </c>
     </row>
@@ -2295,11 +2403,11 @@
         <v>25</v>
       </c>
       <c r="B61" s="18">
+        <f t="shared" si="7"/>
+        <v>20.99</v>
+      </c>
+      <c r="C61" s="15">
         <f t="shared" si="6"/>
-        <v>20.99</v>
-      </c>
-      <c r="C61" s="15">
-        <f t="shared" si="7"/>
         <v>22.039499999999997</v>
       </c>
     </row>
@@ -2308,11 +2416,11 @@
         <v>26</v>
       </c>
       <c r="B62" s="18">
+        <f t="shared" si="7"/>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C62" s="15">
         <f t="shared" si="6"/>
-        <v>19.989999999999998</v>
-      </c>
-      <c r="C62" s="15">
-        <f t="shared" si="7"/>
         <v>20.9895</v>
       </c>
     </row>
@@ -2321,11 +2429,11 @@
         <v>27</v>
       </c>
       <c r="B63" s="18">
+        <f t="shared" si="7"/>
+        <v>12.99</v>
+      </c>
+      <c r="C63" s="15">
         <f t="shared" si="6"/>
-        <v>12.99</v>
-      </c>
-      <c r="C63" s="15">
-        <f t="shared" si="7"/>
         <v>13.6395</v>
       </c>
     </row>
@@ -2334,11 +2442,11 @@
         <v>28</v>
       </c>
       <c r="B64" s="18">
+        <f t="shared" si="7"/>
+        <v>14.49</v>
+      </c>
+      <c r="C64" s="15">
         <f t="shared" si="6"/>
-        <v>14.49</v>
-      </c>
-      <c r="C64" s="15">
-        <f t="shared" si="7"/>
         <v>15.214500000000001</v>
       </c>
     </row>
@@ -5143,18 +5251,19 @@
     <mergeCell ref="E48:M54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5328,7 +5437,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="e">
-        <f ca="1">VLOOOKUP(A21, $A$3:$B$18, 2, 0)</f>
+        <f ca="1">BUSCAARV(A21, $A$3:$B$18, 2, 0)</f>
         <v>#NAME?</v>
       </c>
       <c r="C21" s="19" t="e">
@@ -5416,7 +5525,7 @@
         <v>29.547000000000001</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5452,7 +5561,7 @@
         <v>33</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5484,7 +5593,7 @@
         <v>8.7889999999999997</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8690,6 +8799,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8701,7 +8811,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8754,7 +8864,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8772,7 +8882,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8786,11 +8896,11 @@
         <v>42600</v>
       </c>
       <c r="D5" s="19">
-        <f t="shared" si="0"/>
+        <f>DATEDIF(B5, C5, "M")</f>
         <v>14</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8804,11 +8914,11 @@
         <v>42328</v>
       </c>
       <c r="D6" s="19" t="e">
-        <f t="shared" si="0"/>
+        <f>DATEDIF(B6, C6, "M")</f>
         <v>#NUM!</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8826,7 +8936,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8844,7 +8954,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8862,7 +8972,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8880,7 +8990,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8898,7 +9008,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8916,7 +9026,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8924,37 +9034,37 @@
         <v>52</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F14" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F16" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F17" s="28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F19" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -9023,7 +9133,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9041,7 +9151,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9059,7 +9169,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9077,7 +9187,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9095,7 +9205,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9113,7 +9223,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9131,7 +9241,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9149,7 +9259,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9167,7 +9277,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9185,22 +9295,22 @@
         <v>7</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -9215,8 +9325,8 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9229,7 +9339,7 @@
         <v>55</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
@@ -9296,7 +9406,7 @@
         <v>55</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E7" s="45"/>
       <c r="F7" s="45"/>
@@ -9364,7 +9474,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B14" s="47"/>
       <c r="D14" s="41"/>
@@ -9403,7 +9513,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B19" s="38">
         <v>5</v>
